--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D6677-D739-4C5B-9B37-6342D8549DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,21 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,24 +128,24 @@
     <t>Item 20</t>
   </si>
   <si>
-    <t>Item 21</t>
-  </si>
-  <si>
     <t>For Reorder</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Item 400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="[$₱-3409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,24 +235,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -249,51 +261,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -375,6 +342,36 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -390,6 +387,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -489,7 +501,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3">
+    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
@@ -681,7 +693,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -708,22 +726,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B3:J24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="For Reorder" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="10">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Name" dataDxfId="10"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="9"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="6">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="8"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="7"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="6"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,17 +946,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="57" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" style="3" customWidth="1"/>
@@ -952,7 +970,7 @@
     <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="1" customFormat="1" ht="116.25" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
       <c r="D1" s="15"/>
@@ -961,10 +979,10 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="23.25" customHeight="1">
       <c r="C2" s="10"/>
       <c r="D2" s="16"/>
       <c r="E2" s="11"/>
@@ -978,9 +996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -1007,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="24" customHeight="1">
       <c r="B4" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1035,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="24" customHeight="1">
       <c r="B5" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1063,7 +1081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1091,7 +1109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="24" customHeight="1">
       <c r="B7" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1119,7 +1137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="24" customHeight="1">
       <c r="B8" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1147,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="24" customHeight="1">
       <c r="B9" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1175,7 +1193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="24" customHeight="1">
       <c r="B10" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1206,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="24" customHeight="1">
       <c r="B11" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1234,7 +1252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="24" customHeight="1">
       <c r="B12" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1262,7 +1280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="24" customHeight="1">
       <c r="B13" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1290,7 +1308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="24" customHeight="1">
       <c r="B14" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1318,7 +1336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="24" customHeight="1">
       <c r="B15" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1346,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="24" customHeight="1">
       <c r="B16" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1374,7 +1392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="24" customHeight="1">
       <c r="B17" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1402,7 +1420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="24" customHeight="1">
       <c r="B18" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1430,7 +1448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="24" customHeight="1">
       <c r="B19" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1458,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="24" customHeight="1">
       <c r="B20" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1489,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="24" customHeight="1">
       <c r="B21" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1517,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="24" customHeight="1">
       <c r="B22" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1545,7 +1563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="24" customHeight="1">
       <c r="B23" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1573,13 +1591,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="24" customHeight="1">
       <c r="B24" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="18">
         <v>19</v>
@@ -1603,31 +1621,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:J24">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1872,21 +1890,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1910,6 +1928,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
@@ -1925,12 +1951,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D6677-D739-4C5B-9B37-6342D8549DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C37774-F101-4A3A-8E67-EDC3C30516E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,11 +952,11 @@
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="57" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" style="3" customWidth="1"/>
@@ -970,7 +970,7 @@
     <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="116.25" customHeight="1">
+    <row r="1" spans="2:11" s="1" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
       <c r="D1" s="15"/>
@@ -982,7 +982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="23.25" customHeight="1">
+    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="10"/>
       <c r="D2" s="16"/>
       <c r="E2" s="11"/>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1">
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24" customHeight="1">
+    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1">
+    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1">
+    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1">
+    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="24" customHeight="1">
+    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1">
+    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1">
+    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1">
+    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="24" customHeight="1">
+    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="24" customHeight="1">
+    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="24" customHeight="1">
+    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="24" customHeight="1">
+    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1">
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1">
+    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1">
+    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1">
+    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1">
+    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1">
+    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="24" customHeight="1">
+    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1">
+    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="24" customHeight="1">
+    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>2128</v>
       </c>
       <c r="G24" s="8">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H24" s="8">
         <v>11</v>
@@ -1682,6 +1682,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1889,25 +1907,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1925,30 +1951,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C37774-F101-4A3A-8E67-EDC3C30516E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5991C0-EB5D-4C58-9CF6-8F77874D73A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1682,24 +1682,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1907,33 +1889,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1951,4 +1925,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>